--- a/RadiationPressure/data/Sammlung.xlsx
+++ b/RadiationPressure/data/Sammlung.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20225"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="14115" windowHeight="4695" activeTab="1"/>
+    <workbookView xWindow="14560" yWindow="0" windowWidth="14180" windowHeight="16260" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -90,11 +95,27 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -117,15 +138,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -461,14 +490,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
@@ -537,23 +566,27 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -562,7 +595,7 @@
         <v>15</v>
       </c>
       <c r="C1">
-        <f>(1.5*10^-3)/(176*10^-3)</f>
+        <f>(3*10^-3)/(176*10^-3)/2</f>
         <v>8.5227272727272738E-3</v>
       </c>
       <c r="D1" t="s">
@@ -572,8 +605,8 @@
         <v>17</v>
       </c>
       <c r="G1">
-        <f>1.5*10^-3</f>
-        <v>1.5E-3</v>
+        <f>1.45*10^-3</f>
+        <v>1.4499999999999999E-3</v>
       </c>
       <c r="H1" t="s">
         <v>18</v>
@@ -612,7 +645,7 @@
       </c>
       <c r="G3">
         <f>2*G1/G2</f>
-        <v>1.0006922855944561E-11</v>
+        <v>9.6733587607464082E-12</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -630,8 +663,8 @@
         <v>3</v>
       </c>
       <c r="G4">
-        <f>1870/59</f>
-        <v>31.694915254237287</v>
+        <f>(11750)/220</f>
+        <v>53.409090909090907</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -647,7 +680,7 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <f>C1/C2/C3*C4</f>
+        <f>(C1/C2)/C3*C4</f>
         <v>1.0927918401145878E-8</v>
       </c>
     </row>
@@ -657,7 +690,7 @@
       </c>
       <c r="B9">
         <f>G3*G4/B7</f>
-        <v>2.9023695111192946E-2</v>
+        <v>4.7277558129897965E-2</v>
       </c>
       <c r="C9" t="s">
         <v>20</v>
@@ -667,7 +700,7 @@
     <row r="11" spans="1:8">
       <c r="B11">
         <f>B9*10^3</f>
-        <v>29.023695111192946</v>
+        <v>47.277558129897962</v>
       </c>
       <c r="C11" t="s">
         <v>21</v>
@@ -675,17 +708,27 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>